--- a/demoshipping.xlsx
+++ b/demoshipping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttanita\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttanita\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EFF880-4B91-4493-ADD4-FC0CF771744B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E6C191-6B7E-4EE0-BE1D-7D73331E6FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{B51830B5-66A2-4604-AE6C-1950FC8A6F43}"/>
+    <workbookView xWindow="-18360" yWindow="540" windowWidth="18000" windowHeight="9360" xr2:uid="{B51830B5-66A2-4604-AE6C-1950FC8A6F43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,19 +38,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>us-east-1a</t>
+    <t>Shipping_Fee</t>
   </si>
   <si>
-    <t>us-west-1a</t>
+    <t xml:space="preserve">i-0a64cd90fd5757c27 </t>
   </si>
   <si>
-    <t>us-east-1b</t>
+    <t>i-0db5e5e4af2bd0772</t>
   </si>
   <si>
-    <t>Region</t>
+    <t>i-0dd550b7fbd9ae483</t>
   </si>
   <si>
-    <t>Shipping_Fee</t>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -425,25 +425,25 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>50.25</v>
@@ -451,7 +451,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>17.95</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>45</v>

--- a/demoshipping.xlsx
+++ b/demoshipping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttanita\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E6C191-6B7E-4EE0-BE1D-7D73331E6FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C60F96-4669-4452-9611-FD908B3F8137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18360" yWindow="540" windowWidth="18000" windowHeight="9360" xr2:uid="{B51830B5-66A2-4604-AE6C-1950FC8A6F43}"/>
+    <workbookView xWindow="-19605" yWindow="1590" windowWidth="18000" windowHeight="9360" xr2:uid="{B51830B5-66A2-4604-AE6C-1950FC8A6F43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,16 +41,16 @@
     <t>Shipping_Fee</t>
   </si>
   <si>
-    <t xml:space="preserve">i-0a64cd90fd5757c27 </t>
+    <t>Region</t>
   </si>
   <si>
-    <t>i-0db5e5e4af2bd0772</t>
+    <t>us-east-1a</t>
   </si>
   <si>
-    <t>i-0dd550b7fbd9ae483</t>
+    <t>us-east-1b</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>us-west-1b</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -443,7 +443,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>50.25</v>
@@ -451,7 +451,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>17.95</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>45</v>
